--- a/Assignment3/Speeds of the sort algorithms.xlsx
+++ b/Assignment3/Speeds of the sort algorithms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HvA\Programming\algorithms_and_data_structures\Assignment3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juacq\HvA\Programming\algorithms_and_data_structures\Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93462A5-C0AA-4D97-9D74-66A21ECCC451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3117B9-FFCF-41CB-9971-7C5B44B2DF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7272825-25FB-4C2E-A03B-1298757C8EBB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{F7272825-25FB-4C2E-A03B-1298757C8EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="39">
   <si>
     <t>The specifications of the device:</t>
   </si>
@@ -147,13 +147,16 @@
   <si>
     <t>Archer amount:</t>
   </si>
+  <si>
+    <t>GTX 1650</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -203,7 +206,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -522,7 +525,7 @@
   <dimension ref="A1:BN41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,6 +1814,9 @@
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>

--- a/Assignment3/Speeds of the sort algorithms.xlsx
+++ b/Assignment3/Speeds of the sort algorithms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juacq\HvA\Programming\algorithms_and_data_structures\Assignment3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HvA\Programming\algorithms_and_data_structures\Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A96A9D5-41F5-4294-A59D-51CA080B0411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EB0135-59CD-4D0C-820D-0230D879DC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{5846B7C5-121F-4A2B-8D94-C62E1620635A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5846B7C5-121F-4A2B-8D94-C62E1620635A}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>Test 1</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Windows 10 Education</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>selInsSort</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -236,11 +242,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -276,6 +311,34 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,53 +461,56 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$1:$Q$1</c:f>
+              <c:f>'Raw data'!$C$1:$R$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1600</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3200</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6400</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>12800</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>25600</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>51200</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>102400</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>204800</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>409600</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>819200</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1638400</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>3276800</c:v>
                 </c:pt>
               </c:numCache>
@@ -488,41 +554,44 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$2:$Q$2</c:f>
+              <c:f>'Raw data'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23.21</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>54.29</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>118.63</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>277.70999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>596.57000000000005</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1303.99</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2714.05</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5545.94</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11282.22</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>22822.33</c:v>
                 </c:pt>
               </c:numCache>
@@ -566,26 +635,29 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$3:$Q$3</c:f>
+              <c:f>'Raw data'!$C$3:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>55.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>72.52</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>283.24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1076.57</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4283.91</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17652.18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>71067.92</c:v>
                 </c:pt>
               </c:numCache>
@@ -629,41 +701,44 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$4:$Q$4</c:f>
+              <c:f>'Raw data'!$C$4:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.68</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.54</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>69.89</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>162.33000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>352.43</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>794.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1821.26</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4007.32</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9073.91</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>19302.71</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41648.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -707,53 +782,56 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$5:$Q$5</c:f>
+              <c:f>'Raw data'!$C$5:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.83</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.46</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.28</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24.48</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>46.36</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>88.28</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>170.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>338.98</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>686.14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1372.09</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2722.99</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5496.45</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10914.52</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>21962.98</c:v>
                 </c:pt>
               </c:numCache>
@@ -1144,32 +1222,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$34:$Q$34</c:f>
+              <c:f>'Raw data'!$C$34:$R$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.84</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>53.38</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>116.56</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>262.35000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>588.66</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1261.74</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2672.92</c:v>
                 </c:pt>
               </c:numCache>
@@ -1210,20 +1291,23 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$35:$Q$35</c:f>
+              <c:f>'Raw data'!$C$35:$R$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>75.78</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>274.52999999999997</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1087.83</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4274.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1264,32 +1348,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$36:$Q$36</c:f>
+              <c:f>'Raw data'!$C$36:$R$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>14.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.47</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>33.22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>69.83</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>156.15</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>366.13</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>802.45</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1826.1</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4021.37</c:v>
                 </c:pt>
               </c:numCache>
@@ -1330,44 +1417,47 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$37:$Q$37</c:f>
+              <c:f>'Raw data'!$C$37:$R$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>4.9800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.83</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.51</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.47</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.23</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>46.91</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>87.21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>177.96</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>352.88</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>690.52</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1370.04</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2742.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1683,32 +1773,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$38:$Q$38</c:f>
+              <c:f>'Raw data'!$C$38:$R$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>12.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.56</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.79</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>54.53</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>116.73</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>260.60000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>602.63</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1262.57</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2666.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1749,20 +1842,23 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$39:$Q$39</c:f>
+              <c:f>'Raw data'!$C$39:$R$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>43.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>74.02</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>284.22000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1070.83</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4250.91</c:v>
                 </c:pt>
               </c:numCache>
@@ -1803,32 +1899,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$40:$Q$40</c:f>
+              <c:f>'Raw data'!$C$40:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>14.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.46</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.88</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>68.430000000000007</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>156.68</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>349.62</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>799.25</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1829.24</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4008.56</c:v>
                 </c:pt>
               </c:numCache>
@@ -1869,44 +1968,47 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$41:$Q$41</c:f>
+              <c:f>'Raw data'!$C$41:$R$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>3.11</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.54</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.74</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.53</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25.46</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>47.73</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>88.34</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>170.15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>348.18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>700.7</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1395.43</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2769.94</c:v>
                 </c:pt>
               </c:numCache>
@@ -2114,6 +2216,586 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart of averages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw data'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>collectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Raw data'!$U$2:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>599.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1283.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2682.35</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>5512.2414285714276</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>11204.296666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22822.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63CB-4670-8B0C-7613201632EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw data'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>selInsSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Raw data'!$V$2:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>47.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1074.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4283.21</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>17699.012499999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71067.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-63CB-4670-8B0C-7613201632EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw data'!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Raw data'!$W$2:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>14.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>355.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>792.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1835.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4015.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9095.3575000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19583.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41648.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-63CB-4670-8B0C-7613201632EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw data'!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>heapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Raw data'!$X$2:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>346.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>692.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1378.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2744.35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5509.0042857142853</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10942.393333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21962.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-63CB-4670-8B0C-7613201632EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="645810528"/>
+        <c:axId val="645820368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="645810528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645820368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="645820368"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645810528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2222,41 +2904,44 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$2:$Q$2</c:f>
+              <c:f>'Raw data'!$C$2:$R$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.75</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23.21</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>54.29</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>118.63</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>277.70999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>596.57000000000005</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1303.99</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2714.05</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5545.94</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11282.22</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>22822.33</c:v>
                 </c:pt>
               </c:numCache>
@@ -2297,26 +2982,29 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$3:$Q$3</c:f>
+              <c:f>'Raw data'!$C$3:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>55.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>72.52</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>283.24</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1076.57</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4283.91</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17652.18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>71067.92</c:v>
                 </c:pt>
               </c:numCache>
@@ -2360,41 +3048,44 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$4:$Q$4</c:f>
+              <c:f>'Raw data'!$C$4:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.68</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.54</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>69.89</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>162.33000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>352.43</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>794.6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1821.26</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4007.32</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9073.91</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>19302.71</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>41648.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -2438,53 +3129,56 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$5:$Q$5</c:f>
+              <c:f>'Raw data'!$C$5:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.83</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.46</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.28</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24.48</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>46.36</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>88.28</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>170.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>338.98</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>686.14</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1372.09</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2722.99</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5496.45</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10914.52</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>21962.98</c:v>
                 </c:pt>
               </c:numCache>
@@ -2795,38 +3489,41 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$6:$Q$6</c:f>
+              <c:f>'Raw data'!$C$6:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.9</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.92</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>53.46</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>115.73</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>274.25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>606.38</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1287.67</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2678.84</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5487.15</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11118.52</c:v>
                 </c:pt>
               </c:numCache>
@@ -2867,23 +3564,26 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$7:$Q$7</c:f>
+              <c:f>'Raw data'!$C$7:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>52.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>73.569999999999993</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>289.42</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1077.33</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4282.21</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17816.53</c:v>
                 </c:pt>
               </c:numCache>
@@ -2924,38 +3624,41 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$8:$Q$8</c:f>
+              <c:f>'Raw data'!$C$8:$R$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.39</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.69</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>68.05</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>154.55000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>354.33</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>788.27</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1842.84</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4011.34</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9098.7099999999991</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>19864.71</c:v>
                 </c:pt>
               </c:numCache>
@@ -2996,50 +3699,53 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$9:$Q$9</c:f>
+              <c:f>'Raw data'!$C$9:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.84</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.66</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.42</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.26</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>47.49</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>87.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>176.97</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>347.79</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>686.42</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1371.51</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2718.32</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5476.62</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10930.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3355,38 +4061,41 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$10:$Q$10</c:f>
+              <c:f>'Raw data'!$C$10:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>12.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.67</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.08</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>53.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>117.92</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>268.74</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>603.15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1279.45</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2667.15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5528.3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>11212.15</c:v>
                 </c:pt>
               </c:numCache>
@@ -3427,23 +4136,26 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$11:$Q$11</c:f>
+              <c:f>'Raw data'!$C$11:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>74.650000000000006</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>294.18</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1091.1500000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4372.13</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17659.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -3484,35 +4196,38 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$12:$Q$12</c:f>
+              <c:f>'Raw data'!$C$12:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>13.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.47</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.64</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>68.41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>164.89</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>351.92</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>785.1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1830.28</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3991.65</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9050.7999999999993</c:v>
                 </c:pt>
               </c:numCache>
@@ -3553,50 +4268,53 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$13:$Q$13</c:f>
+              <c:f>'Raw data'!$C$13:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.84</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.37</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.23</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24.72</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>47.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>86.45</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>169.78</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>341.91</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>689.82</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1361.84</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2742.31</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5480.86</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10981.86</c:v>
                 </c:pt>
               </c:numCache>
@@ -3912,35 +4630,38 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$14:$Q$14</c:f>
+              <c:f>'Raw data'!$C$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.59</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.82</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>53.96</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>116.49</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>280.58</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>600.52</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1287.4100000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2681.11</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5496.73</c:v>
                 </c:pt>
               </c:numCache>
@@ -3981,23 +4702,26 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$15:$Q$15</c:f>
+              <c:f>'Raw data'!$C$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>59.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>74.16</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>288.02</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1079.68</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4276.1400000000003</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>17668.32</c:v>
                 </c:pt>
               </c:numCache>
@@ -4038,35 +4762,38 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$16:$Q$16</c:f>
+              <c:f>'Raw data'!$C$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>13.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>11.49</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.64</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>68.91</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>163.27000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>362.53</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>778.85</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1831.12</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4059.74</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9158.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4107,47 +4834,50 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$17:$Q$17</c:f>
+              <c:f>'Raw data'!$C$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>5.39</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.82</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.57</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.52</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24.99</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>47.26</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>86.89</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>176.77</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>339.83</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>678.98</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1385.59</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2736.94</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5524.31</c:v>
                 </c:pt>
               </c:numCache>
@@ -4462,35 +5192,38 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$18:$Q$18</c:f>
+              <c:f>'Raw data'!$C$18:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>14.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.89</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.95</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>53.49</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>117.76</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>274.33</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>593.97</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1304.8599999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2681.21</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5535.33</c:v>
                 </c:pt>
               </c:numCache>
@@ -4531,20 +5264,23 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$19:$Q$19</c:f>
+              <c:f>'Raw data'!$C$19:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>46.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>73.430000000000007</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>282.16000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1064.1400000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4277.2299999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -4585,32 +5321,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$20:$Q$20</c:f>
+              <c:f>'Raw data'!$C$20:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.76</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>153.22999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>357.61</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>800.87</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1843.63</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4033.61</c:v>
                 </c:pt>
               </c:numCache>
@@ -4651,47 +5390,50 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$21:$Q$21</c:f>
+              <c:f>'Raw data'!$C$21:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.83</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.51</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.76</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.19</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24.74</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>47.14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>87.46</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>166.74</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>347.05</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>695.13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1374.39</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2728.75</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5531.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -5002,35 +5744,38 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$22:$Q$22</c:f>
+              <c:f>'Raw data'!$C$22:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.66</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.91</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>53.72</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>119.01</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>279.74</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>605.9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1277.8900000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2698.45</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5499.46</c:v>
                 </c:pt>
               </c:numCache>
@@ -5071,20 +5816,23 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$23:$Q$23</c:f>
+              <c:f>'Raw data'!$C$23:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>42.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>74.09</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>282.86</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1076.42</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4267.93</c:v>
                 </c:pt>
               </c:numCache>
@@ -5125,32 +5873,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$24:$Q$24</c:f>
+              <c:f>'Raw data'!$C$24:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>15.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.39</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.55</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>69.27</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>156.44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>354.45</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>789.14</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1853.9</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4017.79</c:v>
                 </c:pt>
               </c:numCache>
@@ -5191,47 +5942,50 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$25:$Q$25</c:f>
+              <c:f>'Raw data'!$C$25:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.86</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.53</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.45</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.39</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24.95</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>47.89</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>87.79</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>176.53</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>350.47</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>695.04</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1386.18</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2752.62</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5459.67</c:v>
                 </c:pt>
               </c:numCache>
@@ -5542,35 +6296,38 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$26:$Q$26</c:f>
+              <c:f>'Raw data'!$C$26:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.6199999999999992</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.87</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>53.79</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>116.76</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>276.12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>604.78</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1284.24</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2688.57</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>5492.78</c:v>
                 </c:pt>
               </c:numCache>
@@ -5611,20 +6368,23 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$27:$Q$27</c:f>
+              <c:f>'Raw data'!$C$27:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>45.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>73.37</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>281.10000000000002</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1058.8399999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4270.84</c:v>
                 </c:pt>
               </c:numCache>
@@ -5665,32 +6425,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$28:$Q$28</c:f>
+              <c:f>'Raw data'!$C$28:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.42</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.53</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>70.900000000000006</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>149.51</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>352.44</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>795.77</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1832.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3997.16</c:v>
                 </c:pt>
               </c:numCache>
@@ -5731,47 +6494,50 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$29:$Q$29</c:f>
+              <c:f>'Raw data'!$C$29:$R$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.85</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.6100000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.49</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.52</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25.36</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>47.95</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>89.02</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>183.2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>351.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>704.06</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1397.19</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2758.13</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5593.82</c:v>
                 </c:pt>
               </c:numCache>
@@ -6082,32 +6848,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$30:$Q$30</c:f>
+              <c:f>'Raw data'!$C$30:$R$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>10.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.6300000000000008</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>22.88</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>53.7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>116.42</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>278.64999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>588.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1282.4100000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2674.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -6148,20 +6917,23 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$31:$Q$31</c:f>
+              <c:f>'Raw data'!$C$31:$R$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>41.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>72.98</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>276.14999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1062.42</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4276.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -6202,32 +6974,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$32:$Q$32</c:f>
+              <c:f>'Raw data'!$C$32:$R$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>14.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.59</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30.53</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>67.989999999999995</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>153.69999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>357.74</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>783.52</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1841.21</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>4010.65</c:v>
                 </c:pt>
               </c:numCache>
@@ -6268,44 +7043,47 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Raw data'!$C$33:$Q$33</c:f>
+              <c:f>'Raw data'!$C$33:$R$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.87</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7.44</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>13.25</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24.62</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>46.38</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>91.63</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>172.55</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>350.85</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>693.83</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1372.32</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2744.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -6594,6 +7372,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7986,6 +8804,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13049,6 +14383,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238734</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>120341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>6041</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311E73FC-F8B3-443D-94A8-1C006B61BFF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13349,85 +14721,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246C7F88-7B25-4A25-AEDE-6E24FC324B26}">
-  <dimension ref="A1:CB166"/>
+  <dimension ref="A1:CC166"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" customWidth="1"/>
-    <col min="55" max="55" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
       <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="32">
+        <v>100</v>
+      </c>
+      <c r="D1" s="32">
         <v>200</v>
       </c>
-      <c r="D1" s="32">
+      <c r="E1" s="32">
         <v>400</v>
       </c>
-      <c r="E1" s="32">
+      <c r="F1" s="32">
         <v>800</v>
       </c>
-      <c r="F1" s="32">
+      <c r="G1" s="32">
         <v>1600</v>
       </c>
-      <c r="G1" s="32">
+      <c r="H1" s="32">
         <v>3200</v>
       </c>
-      <c r="H1" s="32">
+      <c r="I1" s="32">
         <v>6400</v>
       </c>
-      <c r="I1" s="32">
+      <c r="J1" s="32">
         <v>12800</v>
       </c>
-      <c r="J1" s="32">
+      <c r="K1" s="32">
         <v>25600</v>
       </c>
-      <c r="K1" s="32">
+      <c r="L1" s="32">
         <v>51200</v>
       </c>
-      <c r="L1" s="32">
+      <c r="M1" s="32">
         <v>102400</v>
       </c>
-      <c r="M1" s="32">
+      <c r="N1" s="32">
         <v>204800</v>
       </c>
-      <c r="N1" s="32">
+      <c r="O1" s="32">
         <v>409600</v>
       </c>
-      <c r="O1" s="32">
+      <c r="P1" s="32">
         <v>819200</v>
       </c>
-      <c r="P1" s="32">
+      <c r="Q1" s="32">
         <v>1638400</v>
       </c>
-      <c r="Q1" s="32">
+      <c r="R1" s="32">
         <v>3276800</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1" s="2"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="29"/>
+      <c r="Z1"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
-      <c r="AG1"/>
+      <c r="AG1" s="2"/>
       <c r="AH1"/>
       <c r="AI1"/>
       <c r="AJ1"/>
@@ -13440,7 +14829,7 @@
       <c r="AQ1"/>
       <c r="AR1"/>
       <c r="AS1"/>
-      <c r="AT1" s="2"/>
+      <c r="AT1"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
@@ -13475,8 +14864,9 @@
       <c r="BZ1" s="2"/>
       <c r="CA1" s="2"/>
       <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -13484,53 +14874,69 @@
         <v>11</v>
       </c>
       <c r="C2" s="4">
+        <v>10.56</v>
+      </c>
+      <c r="D2" s="4">
         <v>9.75</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>23.21</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>54.29</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>118.63</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>277.70999999999998</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>596.57000000000005</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>1303.99</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>2714.05</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>5545.94</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>11282.22</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>22822.33</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="29"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="35">
+        <v>100</v>
+      </c>
+      <c r="U2" s="42">
+        <v>11.81</v>
+      </c>
+      <c r="V2" s="43">
+        <v>47.45</v>
+      </c>
+      <c r="W2" s="43">
+        <v>14.32</v>
+      </c>
+      <c r="X2" s="43">
+        <v>5.04</v>
+      </c>
+      <c r="Y2" s="29"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AT2" s="2"/>
+      <c r="AG2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
@@ -13565,31 +14971,34 @@
       <c r="BZ2" s="2"/>
       <c r="CA2" s="2"/>
       <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6">
+        <v>55.83</v>
+      </c>
+      <c r="D3" s="6">
         <v>72.52</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>283.24</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>1076.57</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="7">
         <v>4283.91</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>17652.18</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>71067.92</v>
       </c>
-      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -13597,18 +15006,32 @@
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="29"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="35">
+        <v>200</v>
+      </c>
+      <c r="U3" s="40">
+        <v>9.69</v>
+      </c>
+      <c r="V3" s="38">
+        <v>73.86</v>
+      </c>
+      <c r="W3" s="39">
+        <v>12.49</v>
+      </c>
+      <c r="X3" s="39">
+        <v>2.87</v>
+      </c>
+      <c r="Y3" s="29"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
-      <c r="AT3" s="2"/>
+      <c r="AG3" s="2"/>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
@@ -13643,56 +15066,70 @@
       <c r="BZ3" s="2"/>
       <c r="CA3" s="2"/>
       <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="D4" s="8">
         <v>12.68</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
         <v>30.54</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>69.89</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>162.33000000000001</v>
       </c>
-      <c r="G4" s="9">
+      <c r="H4" s="9">
         <v>352.43</v>
       </c>
-      <c r="H4" s="9">
+      <c r="I4" s="9">
         <v>794.6</v>
       </c>
-      <c r="I4" s="9">
+      <c r="J4" s="9">
         <v>1821.26</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>4007.32</v>
       </c>
-      <c r="K4" s="9">
+      <c r="L4" s="9">
         <v>9073.91</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="9">
         <v>19302.71</v>
       </c>
-      <c r="M4" s="9">
+      <c r="N4" s="9">
         <v>41648.85</v>
       </c>
-      <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="29"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="35">
+        <v>400</v>
+      </c>
+      <c r="U4" s="40">
+        <v>22.9</v>
+      </c>
+      <c r="V4" s="38">
+        <v>283.58999999999997</v>
+      </c>
+      <c r="W4" s="39">
+        <v>30.9</v>
+      </c>
+      <c r="X4" s="39">
+        <v>4.54</v>
+      </c>
+      <c r="Y4" s="31"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -13748,64 +15185,78 @@
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10">
+        <v>5.42</v>
+      </c>
+      <c r="D5" s="10">
         <v>2.83</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>4.46</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>7.28</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <v>13</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>24.48</v>
       </c>
-      <c r="H5" s="11">
+      <c r="I5" s="11">
         <v>46.36</v>
       </c>
-      <c r="I5" s="11">
+      <c r="J5" s="11">
         <v>88.28</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>170.1</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>338.98</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>686.14</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>1372.09</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <v>2722.99</v>
       </c>
-      <c r="O5" s="11">
+      <c r="P5" s="11">
         <v>5496.45</v>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <v>10914.52</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="R5" s="26">
         <v>21962.98</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="36">
+        <v>800</v>
+      </c>
+      <c r="U5" s="40">
+        <v>53.78</v>
+      </c>
+      <c r="V5" s="38">
+        <v>1074.52</v>
+      </c>
+      <c r="W5" s="38">
+        <v>69.069999999999993</v>
+      </c>
+      <c r="X5" s="38">
+        <v>7.45</v>
+      </c>
+      <c r="Y5" s="31"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -13861,8 +15312,9 @@
       <c r="BZ5" s="2"/>
       <c r="CA5" s="2"/>
       <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
@@ -13870,47 +15322,60 @@
         <v>11</v>
       </c>
       <c r="C6" s="4">
+        <v>10.89</v>
+      </c>
+      <c r="D6" s="4">
         <v>9.9</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>22.92</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>53.46</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>115.73</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>274.25</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>606.38</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>1287.67</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>2678.84</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>5487.15</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>11118.52</v>
       </c>
-      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="29"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="35">
+        <v>1600</v>
+      </c>
+      <c r="U6" s="40">
+        <v>117.2</v>
+      </c>
+      <c r="V6" s="38">
+        <v>4283.21</v>
+      </c>
+      <c r="W6" s="38">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="X6" s="38">
+        <v>13.31</v>
+      </c>
+      <c r="Y6" s="31"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -13966,28 +15431,31 @@
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
       <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6">
+        <v>52.38</v>
+      </c>
+      <c r="D7" s="6">
         <v>73.569999999999993</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="7">
         <v>289.42</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <v>1077.33</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="7">
         <v>4282.21</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>17816.53</v>
       </c>
-      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -13996,14 +15464,26 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="29"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="35">
+        <v>3200</v>
+      </c>
+      <c r="U7" s="40">
+        <v>273.31</v>
+      </c>
+      <c r="V7" s="45">
+        <f>(H3+H7+H11+H15)/4</f>
+        <v>17699.012499999997</v>
+      </c>
+      <c r="W7" s="38">
+        <v>355.92</v>
+      </c>
+      <c r="X7" s="38">
+        <v>24.91</v>
+      </c>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -14059,54 +15539,68 @@
       <c r="BZ7" s="2"/>
       <c r="CA7" s="2"/>
       <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="8">
+        <v>13.98</v>
+      </c>
+      <c r="D8" s="8">
         <v>12.39</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="9">
         <v>30.69</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>68.05</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>154.55000000000001</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>354.33</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="9">
         <v>788.27</v>
       </c>
-      <c r="I8" s="9">
+      <c r="J8" s="9">
         <v>1842.84</v>
       </c>
-      <c r="J8" s="9">
+      <c r="K8" s="9">
         <v>4011.34</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>9098.7099999999991</v>
       </c>
-      <c r="L8" s="9">
+      <c r="M8" s="9">
         <v>19864.71</v>
       </c>
-      <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="29"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="35">
+        <v>6400</v>
+      </c>
+      <c r="U8" s="40">
+        <v>599.05999999999995</v>
+      </c>
+      <c r="V8" s="38">
+        <v>71067.92</v>
+      </c>
+      <c r="W8" s="38">
+        <v>792.68</v>
+      </c>
+      <c r="X8" s="38">
+        <v>47.22</v>
+      </c>
+      <c r="Y8" s="31"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -14162,62 +15656,74 @@
       <c r="BZ8" s="2"/>
       <c r="CA8" s="2"/>
       <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="10">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D9" s="10">
         <v>2.84</v>
       </c>
-      <c r="D9" s="11">
+      <c r="E9" s="11">
         <v>4.66</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <v>7.42</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="11">
         <v>13.26</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>25</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I9" s="11">
         <v>47.49</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="11">
         <v>87.6</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11">
         <v>176.97</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>347.79</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="11">
         <v>686.42</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <v>1371.51</v>
       </c>
-      <c r="N9" s="11">
+      <c r="O9" s="11">
         <v>2718.32</v>
       </c>
-      <c r="O9" s="11">
+      <c r="P9" s="11">
         <v>5476.62</v>
       </c>
-      <c r="P9" s="11">
+      <c r="Q9" s="11">
         <v>10930.8</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="29"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="36">
+        <v>12800</v>
+      </c>
+      <c r="U9" s="40">
+        <v>1283.22</v>
+      </c>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38">
+        <v>1835.21</v>
+      </c>
+      <c r="X9" s="38">
+        <v>88.07</v>
+      </c>
+      <c r="Y9" s="31"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -14273,8 +15779,9 @@
       <c r="BZ9" s="2"/>
       <c r="CA9" s="2"/>
       <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>3</v>
       </c>
@@ -14282,47 +15789,58 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
+        <v>12.22</v>
+      </c>
+      <c r="D10" s="4">
         <v>9.67</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>22.08</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>53.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>117.92</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>268.74</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>603.15</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>1279.45</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>2667.15</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>5528.3</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>11212.15</v>
       </c>
-      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="29"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="35">
+        <v>25600</v>
+      </c>
+      <c r="U10" s="40">
+        <v>2682.35</v>
+      </c>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38">
+        <v>4015.92</v>
+      </c>
+      <c r="X10" s="38">
+        <v>174.08</v>
+      </c>
+      <c r="Y10" s="31"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -14378,28 +15896,31 @@
       <c r="BZ10" s="2"/>
       <c r="CA10" s="2"/>
       <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="6">
+        <v>53.4</v>
+      </c>
+      <c r="D11" s="6">
         <v>74.650000000000006</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>294.18</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>1091.1500000000001</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>4372.13</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>17659.02</v>
       </c>
-      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -14408,14 +15929,25 @@
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="29"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="35">
+        <v>51200</v>
+      </c>
+      <c r="U11" s="44">
+        <f>(L2+L6+L10+L14+L18+L22+L26)/7</f>
+        <v>5512.2414285714276</v>
+      </c>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38">
+        <f>(L4+L8+L12+L16)/4</f>
+        <v>9095.3575000000001</v>
+      </c>
+      <c r="X11" s="38">
+        <v>346.9</v>
+      </c>
+      <c r="Y11" s="31"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -14471,52 +16003,66 @@
       <c r="BZ11" s="2"/>
       <c r="CA11" s="2"/>
       <c r="CB11" s="2"/>
+      <c r="CC11" s="2"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8">
+        <v>13.43</v>
+      </c>
+      <c r="D12" s="8">
         <v>12.47</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <v>30.64</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>68.41</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>164.89</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>351.92</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="9">
         <v>785.1</v>
       </c>
-      <c r="I12" s="9">
+      <c r="J12" s="9">
         <v>1830.28</v>
       </c>
-      <c r="J12" s="9">
+      <c r="K12" s="9">
         <v>3991.65</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>9050.7999999999993</v>
       </c>
-      <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="29"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="35">
+        <v>102400</v>
+      </c>
+      <c r="U12" s="44">
+        <f>(M2+M6+M10)/3</f>
+        <v>11204.296666666667</v>
+      </c>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38">
+        <f>(M4+M8)/2</f>
+        <v>19583.71</v>
+      </c>
+      <c r="X12" s="38">
+        <v>692.07</v>
+      </c>
+      <c r="Y12" s="31"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -14572,62 +16118,74 @@
       <c r="BZ12" s="2"/>
       <c r="CA12" s="2"/>
       <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="10">
+        <v>5.04</v>
+      </c>
+      <c r="D13" s="10">
         <v>2.84</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>4.5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
         <v>7.37</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="11">
         <v>13.23</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="11">
         <v>24.72</v>
       </c>
-      <c r="H13" s="11">
+      <c r="I13" s="11">
         <v>47.05</v>
       </c>
-      <c r="I13" s="11">
+      <c r="J13" s="11">
         <v>86.45</v>
       </c>
-      <c r="J13" s="11">
+      <c r="K13" s="11">
         <v>169.78</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>341.91</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <v>689.82</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="11">
         <v>1361.84</v>
       </c>
-      <c r="N13" s="11">
+      <c r="O13" s="11">
         <v>2742.31</v>
       </c>
-      <c r="O13" s="11">
+      <c r="P13" s="11">
         <v>5480.86</v>
       </c>
-      <c r="P13" s="11">
+      <c r="Q13" s="11">
         <v>10981.86</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="29"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="36">
+        <v>204800</v>
+      </c>
+      <c r="U13" s="40">
+        <v>22822.33</v>
+      </c>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38">
+        <v>41648.85</v>
+      </c>
+      <c r="X13" s="38">
+        <v>1378.66</v>
+      </c>
+      <c r="Y13" s="31"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -14683,8 +16241,9 @@
       <c r="BZ13" s="2"/>
       <c r="CA13" s="2"/>
       <c r="CB13" s="2"/>
+      <c r="CC13" s="2"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>4</v>
       </c>
@@ -14692,45 +16251,52 @@
         <v>11</v>
       </c>
       <c r="C14" s="4">
+        <v>10.91</v>
+      </c>
+      <c r="D14" s="4">
         <v>9.59</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>22.82</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>53.96</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>116.49</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>280.58</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>600.52</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>1287.4100000000001</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>2681.11</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>5496.73</v>
       </c>
-      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="29"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="35">
+        <v>409600</v>
+      </c>
+      <c r="U14" s="40"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38">
+        <v>2744.35</v>
+      </c>
+      <c r="Y14" s="31"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -14786,28 +16352,31 @@
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
       <c r="CB14" s="2"/>
+      <c r="CC14" s="2"/>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="6">
+        <v>59.66</v>
+      </c>
+      <c r="D15" s="6">
         <v>74.16</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15" s="7">
         <v>288.02</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>1079.68</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="7">
         <v>4276.1400000000003</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>17668.32</v>
       </c>
-      <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -14816,14 +16385,20 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="29"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="35">
+        <v>8129200</v>
+      </c>
+      <c r="U15" s="41"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38">
+        <f>(P5+P9+P13+P17+P21+P25+P29)/7</f>
+        <v>5509.0042857142853</v>
+      </c>
+      <c r="Y15" s="31"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -14879,52 +16454,61 @@
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
       <c r="CB15" s="2"/>
+      <c r="CC15" s="2"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="8">
+        <v>13.88</v>
+      </c>
+      <c r="D16" s="8">
         <v>11.49</v>
       </c>
-      <c r="D16" s="9">
+      <c r="E16" s="9">
         <v>30.64</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="9">
         <v>68.91</v>
       </c>
-      <c r="F16" s="9">
+      <c r="G16" s="9">
         <v>163.27000000000001</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>362.53</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>778.85</v>
       </c>
-      <c r="I16" s="9">
+      <c r="J16" s="9">
         <v>1831.12</v>
       </c>
-      <c r="J16" s="9">
+      <c r="K16" s="9">
         <v>4059.74</v>
       </c>
-      <c r="K16" s="9">
+      <c r="L16" s="9">
         <v>9158.01</v>
       </c>
-      <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="29"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="35">
+        <v>1638400</v>
+      </c>
+      <c r="U16" s="41"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38">
+        <f>(Q5+Q9+Q13)/3</f>
+        <v>10942.393333333333</v>
+      </c>
+      <c r="Y16" s="31"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -14980,60 +16564,68 @@
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
       <c r="CB16" s="2"/>
+      <c r="CC16" s="2"/>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="10">
+        <v>5.39</v>
+      </c>
+      <c r="D17" s="10">
         <v>2.82</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="11">
         <v>4.57</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <v>7.4</v>
       </c>
-      <c r="F17" s="11">
+      <c r="G17" s="11">
         <v>13.52</v>
       </c>
-      <c r="G17" s="11">
+      <c r="H17" s="11">
         <v>24.99</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="11">
         <v>47.26</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <v>86.89</v>
       </c>
-      <c r="J17" s="11">
+      <c r="K17" s="11">
         <v>176.77</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <v>339.83</v>
       </c>
-      <c r="L17" s="11">
+      <c r="M17" s="11">
         <v>678.98</v>
       </c>
-      <c r="M17" s="11">
+      <c r="N17" s="11">
         <v>1385.59</v>
       </c>
-      <c r="N17" s="11">
+      <c r="O17" s="11">
         <v>2736.94</v>
       </c>
-      <c r="O17" s="11">
+      <c r="P17" s="11">
         <v>5524.31</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="29"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="35">
+        <v>3276800</v>
+      </c>
+      <c r="U17" s="41"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38">
+        <v>21962.98</v>
+      </c>
+      <c r="Y17" s="31"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -15089,8 +16681,9 @@
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="2"/>
+      <c r="CC17" s="2"/>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>5</v>
       </c>
@@ -15098,45 +16691,48 @@
         <v>11</v>
       </c>
       <c r="C18" s="4">
+        <v>14.48</v>
+      </c>
+      <c r="D18" s="4">
         <v>9.89</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>22.95</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>53.49</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>117.76</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>274.33</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>593.97</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>1304.8599999999999</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>2681.21</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>5535.33</v>
       </c>
-      <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="29"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -15192,25 +16788,28 @@
       <c r="BZ18" s="2"/>
       <c r="CA18" s="2"/>
       <c r="CB18" s="2"/>
+      <c r="CC18" s="2"/>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="6">
+        <v>46.16</v>
+      </c>
+      <c r="D19" s="6">
         <v>73.430000000000007</v>
       </c>
-      <c r="D19" s="12">
+      <c r="E19" s="12">
         <v>282.16000000000003</v>
       </c>
-      <c r="E19" s="12">
+      <c r="F19" s="12">
         <v>1064.1400000000001</v>
       </c>
-      <c r="F19" s="12">
+      <c r="G19" s="12">
         <v>4277.2299999999996</v>
       </c>
-      <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -15218,16 +16817,17 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="29"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="31"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -15283,45 +16883,48 @@
       <c r="BZ19" s="2"/>
       <c r="CA19" s="2"/>
       <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="8">
+        <v>14.95</v>
+      </c>
+      <c r="D20" s="8">
         <v>12.5</v>
       </c>
-      <c r="D20" s="14">
+      <c r="E20" s="14">
         <v>30.76</v>
       </c>
-      <c r="E20" s="14">
+      <c r="F20" s="14">
         <v>96</v>
       </c>
-      <c r="F20" s="14">
+      <c r="G20" s="14">
         <v>153.22999999999999</v>
       </c>
-      <c r="G20" s="14">
+      <c r="H20" s="14">
         <v>357.61</v>
       </c>
-      <c r="H20" s="14">
+      <c r="I20" s="14">
         <v>800.87</v>
       </c>
-      <c r="I20" s="14">
+      <c r="J20" s="14">
         <v>1843.63</v>
       </c>
-      <c r="J20" s="14">
+      <c r="K20" s="14">
         <v>4033.61</v>
       </c>
-      <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="29"/>
-      <c r="T20" s="2"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="29"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -15382,55 +16985,58 @@
       <c r="BZ20" s="2"/>
       <c r="CA20" s="2"/>
       <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="10">
+        <v>4.83</v>
+      </c>
+      <c r="D21" s="10">
         <v>2.83</v>
       </c>
-      <c r="D21" s="15">
+      <c r="E21" s="15">
         <v>4.51</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
         <v>7.76</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <v>13.19</v>
       </c>
-      <c r="G21" s="15">
+      <c r="H21" s="15">
         <v>24.74</v>
       </c>
-      <c r="H21" s="15">
+      <c r="I21" s="15">
         <v>47.14</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
         <v>87.46</v>
       </c>
-      <c r="J21" s="15">
+      <c r="K21" s="15">
         <v>166.74</v>
       </c>
-      <c r="K21" s="15">
+      <c r="L21" s="15">
         <v>347.05</v>
       </c>
-      <c r="L21" s="15">
+      <c r="M21" s="15">
         <v>695.13</v>
       </c>
-      <c r="M21" s="15">
+      <c r="N21" s="15">
         <v>1374.39</v>
       </c>
-      <c r="N21" s="15">
+      <c r="O21" s="15">
         <v>2728.75</v>
       </c>
-      <c r="O21" s="15">
+      <c r="P21" s="15">
         <v>5531.3</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="29"/>
-      <c r="T21" s="2"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="29"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
@@ -15491,8 +17097,9 @@
       <c r="BZ21" s="2"/>
       <c r="CA21" s="2"/>
       <c r="CB21" s="2"/>
+      <c r="CC21" s="2"/>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>6</v>
       </c>
@@ -15500,40 +17107,42 @@
         <v>11</v>
       </c>
       <c r="C22" s="4">
+        <v>11.33</v>
+      </c>
+      <c r="D22" s="4">
         <v>9.66</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>22.91</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>53.72</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>119.01</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>279.74</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>605.9</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>1277.8900000000001</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>2698.45</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>5499.46</v>
       </c>
-      <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="29"/>
-      <c r="T22" s="2"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="29"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -15594,25 +17203,28 @@
       <c r="BZ22" s="2"/>
       <c r="CA22" s="2"/>
       <c r="CB22" s="2"/>
+      <c r="CC22" s="2"/>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="6">
+        <v>42.12</v>
+      </c>
+      <c r="D23" s="6">
         <v>74.09</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23" s="7">
         <v>282.86</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="7">
         <v>1076.42</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="7">
         <v>4267.93</v>
       </c>
-      <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -15622,9 +17234,9 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="29"/>
-      <c r="T23" s="2"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="29"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -15685,45 +17297,48 @@
       <c r="BZ23" s="2"/>
       <c r="CA23" s="2"/>
       <c r="CB23" s="2"/>
+      <c r="CC23" s="2"/>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8">
+        <v>15.16</v>
+      </c>
+      <c r="D24" s="8">
         <v>12.39</v>
       </c>
-      <c r="D24" s="9">
+      <c r="E24" s="9">
         <v>30.55</v>
       </c>
-      <c r="E24" s="9">
+      <c r="F24" s="9">
         <v>69.27</v>
       </c>
-      <c r="F24" s="9">
+      <c r="G24" s="9">
         <v>156.44</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H24" s="9">
         <v>354.45</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="9">
         <v>789.14</v>
       </c>
-      <c r="I24" s="9">
+      <c r="J24" s="9">
         <v>1853.9</v>
       </c>
-      <c r="J24" s="9">
+      <c r="K24" s="9">
         <v>4017.79</v>
       </c>
-      <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="29"/>
-      <c r="T24" s="2"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="29"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -15784,55 +17399,58 @@
       <c r="BZ24" s="2"/>
       <c r="CA24" s="2"/>
       <c r="CB24" s="2"/>
+      <c r="CC24" s="2"/>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="D25" s="10">
         <v>2.86</v>
       </c>
-      <c r="D25" s="11">
+      <c r="E25" s="11">
         <v>4.53</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="11">
         <v>7.45</v>
       </c>
-      <c r="F25" s="11">
+      <c r="G25" s="11">
         <v>13.39</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="11">
         <v>24.95</v>
       </c>
-      <c r="H25" s="11">
+      <c r="I25" s="11">
         <v>47.89</v>
       </c>
-      <c r="I25" s="11">
+      <c r="J25" s="11">
         <v>87.79</v>
       </c>
-      <c r="J25" s="11">
+      <c r="K25" s="11">
         <v>176.53</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <v>350.47</v>
       </c>
-      <c r="L25" s="11">
+      <c r="M25" s="11">
         <v>695.04</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="11">
         <v>1386.18</v>
       </c>
-      <c r="N25" s="11">
+      <c r="O25" s="11">
         <v>2752.62</v>
       </c>
-      <c r="O25" s="11">
+      <c r="P25" s="11">
         <v>5459.67</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="29"/>
-      <c r="T25" s="2"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="29"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -15893,8 +17511,9 @@
       <c r="BZ25" s="2"/>
       <c r="CA25" s="2"/>
       <c r="CB25" s="2"/>
+      <c r="CC25" s="2"/>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>7</v>
       </c>
@@ -15902,40 +17521,42 @@
         <v>11</v>
       </c>
       <c r="C26" s="4">
+        <v>12.41</v>
+      </c>
+      <c r="D26" s="4">
         <v>9.6199999999999992</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>22.87</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>53.79</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>116.76</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>276.12</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>604.78</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>1284.24</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>2688.57</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>5492.78</v>
       </c>
-      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="29"/>
-      <c r="T26" s="2"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="29"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -15996,25 +17617,28 @@
       <c r="BZ26" s="2"/>
       <c r="CA26" s="2"/>
       <c r="CB26" s="2"/>
+      <c r="CC26" s="2"/>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="6">
+        <v>45.79</v>
+      </c>
+      <c r="D27" s="6">
         <v>73.37</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27" s="7">
         <v>281.10000000000002</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27" s="7">
         <v>1058.8399999999999</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="7">
         <v>4270.84</v>
       </c>
-      <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -16024,9 +17648,9 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="29"/>
-      <c r="T27" s="2"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="29"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -16087,45 +17711,48 @@
       <c r="BZ27" s="2"/>
       <c r="CA27" s="2"/>
       <c r="CB27" s="2"/>
+      <c r="CC27" s="2"/>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="8">
+        <v>15.02</v>
+      </c>
+      <c r="D28" s="8">
         <v>12.42</v>
       </c>
-      <c r="D28" s="9">
+      <c r="E28" s="9">
         <v>30.53</v>
       </c>
-      <c r="E28" s="9">
+      <c r="F28" s="9">
         <v>70.900000000000006</v>
       </c>
-      <c r="F28" s="9">
+      <c r="G28" s="9">
         <v>149.51</v>
       </c>
-      <c r="G28" s="9">
+      <c r="H28" s="9">
         <v>352.44</v>
       </c>
-      <c r="H28" s="9">
+      <c r="I28" s="9">
         <v>795.77</v>
       </c>
-      <c r="I28" s="9">
+      <c r="J28" s="9">
         <v>1832.5</v>
       </c>
-      <c r="J28" s="9">
+      <c r="K28" s="9">
         <v>3997.16</v>
       </c>
-      <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="29"/>
-      <c r="T28" s="2"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="29"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
@@ -16186,55 +17813,58 @@
       <c r="BZ28" s="2"/>
       <c r="CA28" s="2"/>
       <c r="CB28" s="2"/>
+      <c r="CC28" s="2"/>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
       <c r="B29" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="D29" s="10">
         <v>2.85</v>
       </c>
-      <c r="D29" s="11">
+      <c r="E29" s="11">
         <v>4.6100000000000003</v>
       </c>
-      <c r="E29" s="11">
+      <c r="F29" s="11">
         <v>7.49</v>
       </c>
-      <c r="F29" s="11">
+      <c r="G29" s="11">
         <v>13.52</v>
       </c>
-      <c r="G29" s="11">
+      <c r="H29" s="11">
         <v>25.36</v>
       </c>
-      <c r="H29" s="11">
+      <c r="I29" s="11">
         <v>47.95</v>
       </c>
-      <c r="I29" s="11">
+      <c r="J29" s="11">
         <v>89.02</v>
       </c>
-      <c r="J29" s="11">
+      <c r="K29" s="11">
         <v>183.2</v>
       </c>
-      <c r="K29" s="11">
+      <c r="L29" s="11">
         <v>351.5</v>
       </c>
-      <c r="L29" s="11">
+      <c r="M29" s="11">
         <v>704.06</v>
       </c>
-      <c r="M29" s="11">
+      <c r="N29" s="11">
         <v>1397.19</v>
       </c>
-      <c r="N29" s="11">
+      <c r="O29" s="11">
         <v>2758.13</v>
       </c>
-      <c r="O29" s="11">
+      <c r="P29" s="11">
         <v>5593.82</v>
       </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="29"/>
-      <c r="T29" s="2"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="29"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -16295,8 +17925,9 @@
       <c r="BZ29" s="2"/>
       <c r="CA29" s="2"/>
       <c r="CB29" s="2"/>
+      <c r="CC29" s="2"/>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>8</v>
       </c>
@@ -16304,38 +17935,40 @@
         <v>11</v>
       </c>
       <c r="C30" s="4">
+        <v>10.86</v>
+      </c>
+      <c r="D30" s="4">
         <v>9.6300000000000008</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>22.88</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>53.7</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>116.42</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>278.64999999999998</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>588.03</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>1282.4100000000001</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <v>2674.95</v>
       </c>
-      <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="29"/>
-      <c r="T30" s="2"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="29"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
@@ -16396,25 +18029,28 @@
       <c r="BZ30" s="2"/>
       <c r="CA30" s="2"/>
       <c r="CB30" s="2"/>
+      <c r="CC30" s="2"/>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="6">
+        <v>41.36</v>
+      </c>
+      <c r="D31" s="6">
         <v>72.98</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E31" s="7">
         <v>276.14999999999998</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="7">
         <v>1062.42</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="7">
         <v>4276.5</v>
       </c>
-      <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -16424,9 +18060,9 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="29"/>
-      <c r="T31" s="2"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="29"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
@@ -16487,45 +18123,48 @@
       <c r="BZ31" s="2"/>
       <c r="CA31" s="2"/>
       <c r="CB31" s="2"/>
+      <c r="CC31" s="2"/>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="8">
+        <v>14.79</v>
+      </c>
+      <c r="D32" s="8">
         <v>12.59</v>
       </c>
-      <c r="D32" s="9">
+      <c r="E32" s="9">
         <v>30.53</v>
       </c>
-      <c r="E32" s="9">
+      <c r="F32" s="9">
         <v>67.989999999999995</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G32" s="9">
         <v>153.69999999999999</v>
       </c>
-      <c r="G32" s="9">
+      <c r="H32" s="9">
         <v>357.74</v>
       </c>
-      <c r="H32" s="9">
+      <c r="I32" s="9">
         <v>783.52</v>
       </c>
-      <c r="I32" s="9">
+      <c r="J32" s="9">
         <v>1841.21</v>
       </c>
-      <c r="J32" s="9">
+      <c r="K32" s="9">
         <v>4010.65</v>
       </c>
-      <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="29"/>
-      <c r="T32" s="2"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="29"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -16586,53 +18225,56 @@
       <c r="BZ32" s="2"/>
       <c r="CA32" s="2"/>
       <c r="CB32" s="2"/>
+      <c r="CC32" s="2"/>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="10">
+        <v>4.55</v>
+      </c>
+      <c r="D33" s="10">
         <v>2.87</v>
       </c>
-      <c r="D33" s="11">
+      <c r="E33" s="11">
         <v>4.5</v>
       </c>
-      <c r="E33" s="11">
+      <c r="F33" s="11">
         <v>7.44</v>
       </c>
-      <c r="F33" s="11">
+      <c r="G33" s="11">
         <v>13.25</v>
       </c>
-      <c r="G33" s="11">
+      <c r="H33" s="11">
         <v>24.62</v>
       </c>
-      <c r="H33" s="11">
+      <c r="I33" s="11">
         <v>46.38</v>
       </c>
-      <c r="I33" s="11">
+      <c r="J33" s="11">
         <v>91.63</v>
       </c>
-      <c r="J33" s="11">
+      <c r="K33" s="11">
         <v>172.55</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="11">
         <v>350.85</v>
       </c>
-      <c r="L33" s="11">
+      <c r="M33" s="11">
         <v>693.83</v>
       </c>
-      <c r="M33" s="11">
+      <c r="N33" s="11">
         <v>1372.32</v>
       </c>
-      <c r="N33" s="11">
+      <c r="O33" s="11">
         <v>2744.95</v>
       </c>
-      <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="29"/>
-      <c r="T33" s="2"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="29"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -16693,8 +18335,9 @@
       <c r="BZ33" s="2"/>
       <c r="CA33" s="2"/>
       <c r="CB33" s="2"/>
+      <c r="CC33" s="2"/>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>9</v>
       </c>
@@ -16702,38 +18345,40 @@
         <v>11</v>
       </c>
       <c r="C34" s="4">
+        <v>11.88</v>
+      </c>
+      <c r="D34" s="4">
         <v>9.6</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>22.84</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>53.38</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>116.56</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>262.35000000000002</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>588.66</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>1261.74</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <v>2672.92</v>
       </c>
-      <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="29"/>
-      <c r="T34" s="2"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="29"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -16794,41 +18439,44 @@
       <c r="BZ34" s="2"/>
       <c r="CA34" s="2"/>
       <c r="CB34" s="2"/>
+      <c r="CC34" s="2"/>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="16">
+        <v>41.79</v>
+      </c>
+      <c r="D35" s="16">
         <v>75.78</v>
       </c>
-      <c r="D35" s="12">
+      <c r="E35" s="12">
         <v>274.52999999999997</v>
       </c>
-      <c r="E35" s="12">
+      <c r="F35" s="12">
         <v>1087.83</v>
       </c>
-      <c r="F35" s="12">
+      <c r="G35" s="12">
         <v>4274.3</v>
       </c>
-      <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
-      <c r="L35" s="13"/>
+      <c r="L35" s="12"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="29"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="3"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="29"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="2"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="2"/>
+      <c r="X35" s="3"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -16885,45 +18533,48 @@
       <c r="BZ35" s="2"/>
       <c r="CA35" s="2"/>
       <c r="CB35" s="2"/>
+      <c r="CC35" s="2"/>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="17">
+        <v>14.43</v>
+      </c>
+      <c r="D36" s="17">
         <v>12.47</v>
       </c>
-      <c r="D36" s="14">
+      <c r="E36" s="14">
         <v>33.22</v>
       </c>
-      <c r="E36" s="14">
+      <c r="F36" s="14">
         <v>69.83</v>
       </c>
-      <c r="F36" s="14">
+      <c r="G36" s="14">
         <v>156.15</v>
       </c>
-      <c r="G36" s="14">
+      <c r="H36" s="14">
         <v>366.13</v>
       </c>
-      <c r="H36" s="14">
+      <c r="I36" s="14">
         <v>802.45</v>
       </c>
-      <c r="I36" s="14">
+      <c r="J36" s="14">
         <v>1826.1</v>
       </c>
-      <c r="J36" s="14">
+      <c r="K36" s="14">
         <v>4021.37</v>
       </c>
-      <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="29"/>
-      <c r="T36" s="2"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="29"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
@@ -16984,53 +18635,56 @@
       <c r="BZ36" s="2"/>
       <c r="CA36" s="2"/>
       <c r="CB36" s="2"/>
+      <c r="CC36" s="2"/>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="18">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D37" s="18">
         <v>2.83</v>
       </c>
-      <c r="D37" s="15">
+      <c r="E37" s="15">
         <v>4.51</v>
       </c>
-      <c r="E37" s="15">
+      <c r="F37" s="15">
         <v>7.47</v>
       </c>
-      <c r="F37" s="15">
+      <c r="G37" s="15">
         <v>13.23</v>
       </c>
-      <c r="G37" s="15">
+      <c r="H37" s="15">
         <v>24.8</v>
       </c>
-      <c r="H37" s="15">
+      <c r="I37" s="15">
         <v>46.91</v>
       </c>
-      <c r="I37" s="15">
+      <c r="J37" s="15">
         <v>87.21</v>
       </c>
-      <c r="J37" s="15">
+      <c r="K37" s="15">
         <v>177.96</v>
       </c>
-      <c r="K37" s="15">
+      <c r="L37" s="15">
         <v>352.88</v>
       </c>
-      <c r="L37" s="15">
+      <c r="M37" s="15">
         <v>690.52</v>
       </c>
-      <c r="M37" s="15">
+      <c r="N37" s="15">
         <v>1370.04</v>
       </c>
-      <c r="N37" s="15">
+      <c r="O37" s="15">
         <v>2742.5</v>
       </c>
-      <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="29"/>
-      <c r="T37" s="2"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="29"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
@@ -17091,8 +18745,9 @@
       <c r="BZ37" s="2"/>
       <c r="CA37" s="2"/>
       <c r="CB37" s="2"/>
+      <c r="CC37" s="2"/>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>10</v>
       </c>
@@ -17100,38 +18755,40 @@
         <v>11</v>
       </c>
       <c r="C38" s="4">
+        <v>12.59</v>
+      </c>
+      <c r="D38" s="4">
         <v>9.56</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <v>22.79</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>54.53</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>116.73</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>260.60000000000002</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>602.63</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>1262.57</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>2666.2</v>
       </c>
-      <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="29"/>
-      <c r="T38" s="2"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="29"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
@@ -17192,25 +18849,28 @@
       <c r="BZ38" s="2"/>
       <c r="CA38" s="2"/>
       <c r="CB38" s="2"/>
+      <c r="CC38" s="2"/>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="6">
+        <v>43.01</v>
+      </c>
+      <c r="D39" s="6">
         <v>74.02</v>
       </c>
-      <c r="D39" s="7">
+      <c r="E39" s="7">
         <v>284.22000000000003</v>
       </c>
-      <c r="E39" s="7">
+      <c r="F39" s="7">
         <v>1070.83</v>
       </c>
-      <c r="F39" s="7">
+      <c r="G39" s="7">
         <v>4250.91</v>
       </c>
-      <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -17220,9 +18880,9 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="29"/>
-      <c r="T39" s="2"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="29"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
@@ -17283,45 +18943,48 @@
       <c r="BZ39" s="2"/>
       <c r="CA39" s="2"/>
       <c r="CB39" s="2"/>
+      <c r="CC39" s="2"/>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="8">
+        <v>14.18</v>
+      </c>
+      <c r="D40" s="8">
         <v>12.46</v>
       </c>
-      <c r="D40" s="9">
+      <c r="E40" s="9">
         <v>30.88</v>
       </c>
-      <c r="E40" s="9">
+      <c r="F40" s="9">
         <v>68.430000000000007</v>
       </c>
-      <c r="F40" s="9">
+      <c r="G40" s="9">
         <v>156.68</v>
       </c>
-      <c r="G40" s="9">
+      <c r="H40" s="9">
         <v>349.62</v>
       </c>
-      <c r="H40" s="9">
+      <c r="I40" s="9">
         <v>799.25</v>
       </c>
-      <c r="I40" s="9">
+      <c r="J40" s="9">
         <v>1829.24</v>
       </c>
-      <c r="J40" s="9">
+      <c r="K40" s="9">
         <v>4008.56</v>
       </c>
-      <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="29"/>
-      <c r="T40" s="2"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="29"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
@@ -17382,53 +19045,56 @@
       <c r="BZ40" s="2"/>
       <c r="CA40" s="2"/>
       <c r="CB40" s="2"/>
+      <c r="CC40" s="2"/>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="B41" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="10">
+        <v>4.82</v>
+      </c>
+      <c r="D41" s="10">
         <v>3.11</v>
       </c>
-      <c r="D41" s="11">
+      <c r="E41" s="11">
         <v>4.54</v>
       </c>
-      <c r="E41" s="11">
+      <c r="F41" s="11">
         <v>7.74</v>
       </c>
-      <c r="F41" s="11">
+      <c r="G41" s="11">
         <v>13.53</v>
       </c>
-      <c r="G41" s="11">
+      <c r="H41" s="11">
         <v>25.46</v>
       </c>
-      <c r="H41" s="11">
+      <c r="I41" s="11">
         <v>47.73</v>
       </c>
-      <c r="I41" s="11">
+      <c r="J41" s="11">
         <v>88.34</v>
       </c>
-      <c r="J41" s="11">
+      <c r="K41" s="11">
         <v>170.15</v>
       </c>
-      <c r="K41" s="11">
+      <c r="L41" s="11">
         <v>348.18</v>
       </c>
-      <c r="L41" s="11">
+      <c r="M41" s="11">
         <v>700.7</v>
       </c>
-      <c r="M41" s="11">
+      <c r="N41" s="11">
         <v>1395.43</v>
       </c>
-      <c r="N41" s="11">
+      <c r="O41" s="11">
         <v>2769.94</v>
       </c>
-      <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="29"/>
-      <c r="T41" s="2"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="29"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
@@ -17489,12 +19155,13 @@
       <c r="BZ41" s="2"/>
       <c r="CA41" s="2"/>
       <c r="CB41" s="2"/>
+      <c r="CC41" s="2"/>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
-      <c r="D42" s="31"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
@@ -17508,8 +19175,8 @@
       <c r="O42" s="31"/>
       <c r="P42" s="31"/>
       <c r="Q42" s="31"/>
-      <c r="R42" s="29"/>
-      <c r="T42" s="2"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="29"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
@@ -17570,13 +19237,14 @@
       <c r="BZ42" s="2"/>
       <c r="CA42" s="2"/>
       <c r="CB42" s="2"/>
+      <c r="CC42" s="2"/>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
-      <c r="E43" s="31"/>
+      <c r="E43" s="29"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
@@ -17590,7 +19258,7 @@
       <c r="P43" s="31"/>
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
-      <c r="T43" s="2"/>
+      <c r="S43" s="31"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
@@ -17651,12 +19319,12 @@
       <c r="BZ43" s="2"/>
       <c r="CA43" s="2"/>
       <c r="CB43" s="2"/>
+      <c r="CC43" s="2"/>
     </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -17670,7 +19338,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="S44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -17731,12 +19399,12 @@
       <c r="BZ44" s="2"/>
       <c r="CA44" s="2"/>
       <c r="CB44" s="2"/>
+      <c r="CC44" s="2"/>
     </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -17811,12 +19479,12 @@
       <c r="BZ45" s="2"/>
       <c r="CA45" s="2"/>
       <c r="CB45" s="2"/>
+      <c r="CC45" s="2"/>
     </row>
-    <row r="46" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -17891,12 +19559,12 @@
       <c r="BZ46" s="2"/>
       <c r="CA46" s="2"/>
       <c r="CB46" s="2"/>
+      <c r="CC46" s="2"/>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -17971,12 +19639,12 @@
       <c r="BZ47" s="2"/>
       <c r="CA47" s="2"/>
       <c r="CB47" s="2"/>
+      <c r="CC47" s="2"/>
     </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -18051,9 +19719,9 @@
       <c r="BZ48" s="2"/>
       <c r="CA48" s="2"/>
       <c r="CB48" s="2"/>
+      <c r="CC48" s="2"/>
     </row>
-    <row r="49" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F49" s="2"/>
+    <row r="49" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -18128,9 +19796,9 @@
       <c r="BZ49" s="2"/>
       <c r="CA49" s="2"/>
       <c r="CB49" s="2"/>
+      <c r="CC49" s="2"/>
     </row>
-    <row r="50" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F50" s="2"/>
+    <row r="50" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -18205,9 +19873,9 @@
       <c r="BZ50" s="2"/>
       <c r="CA50" s="2"/>
       <c r="CB50" s="2"/>
+      <c r="CC50" s="2"/>
     </row>
-    <row r="51" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F51" s="2"/>
+    <row r="51" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -18282,9 +19950,9 @@
       <c r="BZ51" s="2"/>
       <c r="CA51" s="2"/>
       <c r="CB51" s="2"/>
+      <c r="CC51" s="2"/>
     </row>
-    <row r="52" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F52" s="2"/>
+    <row r="52" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -18359,9 +20027,9 @@
       <c r="BZ52" s="2"/>
       <c r="CA52" s="2"/>
       <c r="CB52" s="2"/>
+      <c r="CC52" s="2"/>
     </row>
-    <row r="53" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F53" s="2"/>
+    <row r="53" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -18436,9 +20104,9 @@
       <c r="BZ53" s="2"/>
       <c r="CA53" s="2"/>
       <c r="CB53" s="2"/>
+      <c r="CC53" s="2"/>
     </row>
-    <row r="54" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F54" s="2"/>
+    <row r="54" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -18513,9 +20181,9 @@
       <c r="BZ54" s="2"/>
       <c r="CA54" s="2"/>
       <c r="CB54" s="2"/>
+      <c r="CC54" s="2"/>
     </row>
-    <row r="55" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F55" s="2"/>
+    <row r="55" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -18590,9 +20258,9 @@
       <c r="BZ55" s="2"/>
       <c r="CA55" s="2"/>
       <c r="CB55" s="2"/>
+      <c r="CC55" s="2"/>
     </row>
-    <row r="56" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F56" s="2"/>
+    <row r="56" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -18667,9 +20335,9 @@
       <c r="BZ56" s="2"/>
       <c r="CA56" s="2"/>
       <c r="CB56" s="2"/>
+      <c r="CC56" s="2"/>
     </row>
-    <row r="57" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F57" s="2"/>
+    <row r="57" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -18744,9 +20412,9 @@
       <c r="BZ57" s="2"/>
       <c r="CA57" s="2"/>
       <c r="CB57" s="2"/>
+      <c r="CC57" s="2"/>
     </row>
-    <row r="58" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F58" s="2"/>
+    <row r="58" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -18821,9 +20489,9 @@
       <c r="BZ58" s="2"/>
       <c r="CA58" s="2"/>
       <c r="CB58" s="2"/>
+      <c r="CC58" s="2"/>
     </row>
-    <row r="59" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F59" s="2"/>
+    <row r="59" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -18898,9 +20566,9 @@
       <c r="BZ59" s="2"/>
       <c r="CA59" s="2"/>
       <c r="CB59" s="2"/>
+      <c r="CC59" s="2"/>
     </row>
-    <row r="60" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F60" s="2"/>
+    <row r="60" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -18975,9 +20643,9 @@
       <c r="BZ60" s="2"/>
       <c r="CA60" s="2"/>
       <c r="CB60" s="2"/>
+      <c r="CC60" s="2"/>
     </row>
-    <row r="61" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F61" s="2"/>
+    <row r="61" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -19052,9 +20720,9 @@
       <c r="BZ61" s="2"/>
       <c r="CA61" s="2"/>
       <c r="CB61" s="2"/>
+      <c r="CC61" s="2"/>
     </row>
-    <row r="62" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F62" s="2"/>
+    <row r="62" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -19129,9 +20797,9 @@
       <c r="BZ62" s="2"/>
       <c r="CA62" s="2"/>
       <c r="CB62" s="2"/>
+      <c r="CC62" s="2"/>
     </row>
-    <row r="63" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F63" s="2"/>
+    <row r="63" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -19206,9 +20874,9 @@
       <c r="BZ63" s="2"/>
       <c r="CA63" s="2"/>
       <c r="CB63" s="2"/>
+      <c r="CC63" s="2"/>
     </row>
-    <row r="64" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F64" s="2"/>
+    <row r="64" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -19283,9 +20951,9 @@
       <c r="BZ64" s="2"/>
       <c r="CA64" s="2"/>
       <c r="CB64" s="2"/>
+      <c r="CC64" s="2"/>
     </row>
-    <row r="65" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F65" s="2"/>
+    <row r="65" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -19360,9 +21028,9 @@
       <c r="BZ65" s="2"/>
       <c r="CA65" s="2"/>
       <c r="CB65" s="2"/>
+      <c r="CC65" s="2"/>
     </row>
-    <row r="66" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F66" s="2"/>
+    <row r="66" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -19437,9 +21105,9 @@
       <c r="BZ66" s="2"/>
       <c r="CA66" s="2"/>
       <c r="CB66" s="2"/>
+      <c r="CC66" s="2"/>
     </row>
-    <row r="67" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F67" s="2"/>
+    <row r="67" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -19514,9 +21182,9 @@
       <c r="BZ67" s="2"/>
       <c r="CA67" s="2"/>
       <c r="CB67" s="2"/>
+      <c r="CC67" s="2"/>
     </row>
-    <row r="68" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F68" s="2"/>
+    <row r="68" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -19591,9 +21259,9 @@
       <c r="BZ68" s="2"/>
       <c r="CA68" s="2"/>
       <c r="CB68" s="2"/>
+      <c r="CC68" s="2"/>
     </row>
-    <row r="69" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F69" s="2"/>
+    <row r="69" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -19668,9 +21336,9 @@
       <c r="BZ69" s="2"/>
       <c r="CA69" s="2"/>
       <c r="CB69" s="2"/>
+      <c r="CC69" s="2"/>
     </row>
-    <row r="70" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F70" s="2"/>
+    <row r="70" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -19745,9 +21413,9 @@
       <c r="BZ70" s="2"/>
       <c r="CA70" s="2"/>
       <c r="CB70" s="2"/>
+      <c r="CC70" s="2"/>
     </row>
-    <row r="71" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F71" s="2"/>
+    <row r="71" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -19822,9 +21490,9 @@
       <c r="BZ71" s="2"/>
       <c r="CA71" s="2"/>
       <c r="CB71" s="2"/>
+      <c r="CC71" s="2"/>
     </row>
-    <row r="72" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F72" s="2"/>
+    <row r="72" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -19899,9 +21567,9 @@
       <c r="BZ72" s="2"/>
       <c r="CA72" s="2"/>
       <c r="CB72" s="2"/>
+      <c r="CC72" s="2"/>
     </row>
-    <row r="73" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F73" s="2"/>
+    <row r="73" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -19976,9 +21644,9 @@
       <c r="BZ73" s="2"/>
       <c r="CA73" s="2"/>
       <c r="CB73" s="2"/>
+      <c r="CC73" s="2"/>
     </row>
-    <row r="74" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F74" s="2"/>
+    <row r="74" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -20053,9 +21721,9 @@
       <c r="BZ74" s="2"/>
       <c r="CA74" s="2"/>
       <c r="CB74" s="2"/>
+      <c r="CC74" s="2"/>
     </row>
-    <row r="75" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F75" s="2"/>
+    <row r="75" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -20130,9 +21798,9 @@
       <c r="BZ75" s="2"/>
       <c r="CA75" s="2"/>
       <c r="CB75" s="2"/>
+      <c r="CC75" s="2"/>
     </row>
-    <row r="76" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F76" s="2"/>
+    <row r="76" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -20207,9 +21875,9 @@
       <c r="BZ76" s="2"/>
       <c r="CA76" s="2"/>
       <c r="CB76" s="2"/>
+      <c r="CC76" s="2"/>
     </row>
-    <row r="77" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F77" s="2"/>
+    <row r="77" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -20284,9 +21952,9 @@
       <c r="BZ77" s="2"/>
       <c r="CA77" s="2"/>
       <c r="CB77" s="2"/>
+      <c r="CC77" s="2"/>
     </row>
-    <row r="78" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F78" s="2"/>
+    <row r="78" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -20361,9 +22029,9 @@
       <c r="BZ78" s="2"/>
       <c r="CA78" s="2"/>
       <c r="CB78" s="2"/>
+      <c r="CC78" s="2"/>
     </row>
-    <row r="79" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F79" s="2"/>
+    <row r="79" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -20438,9 +22106,9 @@
       <c r="BZ79" s="2"/>
       <c r="CA79" s="2"/>
       <c r="CB79" s="2"/>
+      <c r="CC79" s="2"/>
     </row>
-    <row r="80" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F80" s="2"/>
+    <row r="80" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -20515,9 +22183,9 @@
       <c r="BZ80" s="2"/>
       <c r="CA80" s="2"/>
       <c r="CB80" s="2"/>
+      <c r="CC80" s="2"/>
     </row>
-    <row r="81" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F81" s="2"/>
+    <row r="81" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -20592,9 +22260,9 @@
       <c r="BZ81" s="2"/>
       <c r="CA81" s="2"/>
       <c r="CB81" s="2"/>
+      <c r="CC81" s="2"/>
     </row>
-    <row r="82" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F82" s="2"/>
+    <row r="82" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -20669,9 +22337,9 @@
       <c r="BZ82" s="2"/>
       <c r="CA82" s="2"/>
       <c r="CB82" s="2"/>
+      <c r="CC82" s="2"/>
     </row>
-    <row r="83" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F83" s="2"/>
+    <row r="83" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -20746,9 +22414,9 @@
       <c r="BZ83" s="2"/>
       <c r="CA83" s="2"/>
       <c r="CB83" s="2"/>
+      <c r="CC83" s="2"/>
     </row>
-    <row r="84" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F84" s="2"/>
+    <row r="84" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -20823,9 +22491,9 @@
       <c r="BZ84" s="2"/>
       <c r="CA84" s="2"/>
       <c r="CB84" s="2"/>
+      <c r="CC84" s="2"/>
     </row>
-    <row r="85" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F85" s="2"/>
+    <row r="85" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -20900,9 +22568,9 @@
       <c r="BZ85" s="2"/>
       <c r="CA85" s="2"/>
       <c r="CB85" s="2"/>
+      <c r="CC85" s="2"/>
     </row>
-    <row r="86" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F86" s="2"/>
+    <row r="86" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -20977,9 +22645,9 @@
       <c r="BZ86" s="2"/>
       <c r="CA86" s="2"/>
       <c r="CB86" s="2"/>
+      <c r="CC86" s="2"/>
     </row>
-    <row r="87" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F87" s="2"/>
+    <row r="87" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -21054,9 +22722,9 @@
       <c r="BZ87" s="2"/>
       <c r="CA87" s="2"/>
       <c r="CB87" s="2"/>
+      <c r="CC87" s="2"/>
     </row>
-    <row r="88" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F88" s="2"/>
+    <row r="88" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -21131,9 +22799,9 @@
       <c r="BZ88" s="2"/>
       <c r="CA88" s="2"/>
       <c r="CB88" s="2"/>
+      <c r="CC88" s="2"/>
     </row>
-    <row r="89" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F89" s="2"/>
+    <row r="89" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -21208,9 +22876,9 @@
       <c r="BZ89" s="2"/>
       <c r="CA89" s="2"/>
       <c r="CB89" s="2"/>
+      <c r="CC89" s="2"/>
     </row>
-    <row r="90" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F90" s="2"/>
+    <row r="90" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -21285,9 +22953,9 @@
       <c r="BZ90" s="2"/>
       <c r="CA90" s="2"/>
       <c r="CB90" s="2"/>
+      <c r="CC90" s="2"/>
     </row>
-    <row r="91" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F91" s="2"/>
+    <row r="91" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -21362,9 +23030,9 @@
       <c r="BZ91" s="2"/>
       <c r="CA91" s="2"/>
       <c r="CB91" s="2"/>
+      <c r="CC91" s="2"/>
     </row>
-    <row r="92" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F92" s="2"/>
+    <row r="92" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -21439,9 +23107,9 @@
       <c r="BZ92" s="2"/>
       <c r="CA92" s="2"/>
       <c r="CB92" s="2"/>
+      <c r="CC92" s="2"/>
     </row>
-    <row r="93" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F93" s="2"/>
+    <row r="93" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -21516,9 +23184,9 @@
       <c r="BZ93" s="2"/>
       <c r="CA93" s="2"/>
       <c r="CB93" s="2"/>
+      <c r="CC93" s="2"/>
     </row>
-    <row r="94" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F94" s="2"/>
+    <row r="94" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -21593,9 +23261,9 @@
       <c r="BZ94" s="2"/>
       <c r="CA94" s="2"/>
       <c r="CB94" s="2"/>
+      <c r="CC94" s="2"/>
     </row>
-    <row r="95" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F95" s="2"/>
+    <row r="95" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -21670,9 +23338,9 @@
       <c r="BZ95" s="2"/>
       <c r="CA95" s="2"/>
       <c r="CB95" s="2"/>
+      <c r="CC95" s="2"/>
     </row>
-    <row r="96" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F96" s="2"/>
+    <row r="96" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -21747,9 +23415,9 @@
       <c r="BZ96" s="2"/>
       <c r="CA96" s="2"/>
       <c r="CB96" s="2"/>
+      <c r="CC96" s="2"/>
     </row>
-    <row r="97" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F97" s="2"/>
+    <row r="97" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -21824,9 +23492,9 @@
       <c r="BZ97" s="2"/>
       <c r="CA97" s="2"/>
       <c r="CB97" s="2"/>
+      <c r="CC97" s="2"/>
     </row>
-    <row r="98" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F98" s="2"/>
+    <row r="98" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -21901,9 +23569,9 @@
       <c r="BZ98" s="2"/>
       <c r="CA98" s="2"/>
       <c r="CB98" s="2"/>
+      <c r="CC98" s="2"/>
     </row>
-    <row r="99" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F99" s="2"/>
+    <row r="99" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -21978,9 +23646,9 @@
       <c r="BZ99" s="2"/>
       <c r="CA99" s="2"/>
       <c r="CB99" s="2"/>
+      <c r="CC99" s="2"/>
     </row>
-    <row r="100" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F100" s="2"/>
+    <row r="100" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -22055,9 +23723,9 @@
       <c r="BZ100" s="2"/>
       <c r="CA100" s="2"/>
       <c r="CB100" s="2"/>
+      <c r="CC100" s="2"/>
     </row>
-    <row r="101" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F101" s="2"/>
+    <row r="101" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -22132,9 +23800,9 @@
       <c r="BZ101" s="2"/>
       <c r="CA101" s="2"/>
       <c r="CB101" s="2"/>
+      <c r="CC101" s="2"/>
     </row>
-    <row r="102" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F102" s="2"/>
+    <row r="102" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -22209,9 +23877,9 @@
       <c r="BZ102" s="2"/>
       <c r="CA102" s="2"/>
       <c r="CB102" s="2"/>
+      <c r="CC102" s="2"/>
     </row>
-    <row r="103" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F103" s="2"/>
+    <row r="103" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -22286,9 +23954,9 @@
       <c r="BZ103" s="2"/>
       <c r="CA103" s="2"/>
       <c r="CB103" s="2"/>
+      <c r="CC103" s="2"/>
     </row>
-    <row r="104" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F104" s="2"/>
+    <row r="104" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -22363,9 +24031,9 @@
       <c r="BZ104" s="2"/>
       <c r="CA104" s="2"/>
       <c r="CB104" s="2"/>
+      <c r="CC104" s="2"/>
     </row>
-    <row r="105" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F105" s="2"/>
+    <row r="105" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -22440,9 +24108,9 @@
       <c r="BZ105" s="2"/>
       <c r="CA105" s="2"/>
       <c r="CB105" s="2"/>
+      <c r="CC105" s="2"/>
     </row>
-    <row r="106" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F106" s="2"/>
+    <row r="106" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -22517,9 +24185,9 @@
       <c r="BZ106" s="2"/>
       <c r="CA106" s="2"/>
       <c r="CB106" s="2"/>
+      <c r="CC106" s="2"/>
     </row>
-    <row r="107" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F107" s="2"/>
+    <row r="107" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -22594,9 +24262,9 @@
       <c r="BZ107" s="2"/>
       <c r="CA107" s="2"/>
       <c r="CB107" s="2"/>
+      <c r="CC107" s="2"/>
     </row>
-    <row r="108" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F108" s="2"/>
+    <row r="108" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -22671,9 +24339,9 @@
       <c r="BZ108" s="2"/>
       <c r="CA108" s="2"/>
       <c r="CB108" s="2"/>
+      <c r="CC108" s="2"/>
     </row>
-    <row r="109" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F109" s="2"/>
+    <row r="109" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -22748,9 +24416,9 @@
       <c r="BZ109" s="2"/>
       <c r="CA109" s="2"/>
       <c r="CB109" s="2"/>
+      <c r="CC109" s="2"/>
     </row>
-    <row r="110" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F110" s="2"/>
+    <row r="110" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -22825,9 +24493,9 @@
       <c r="BZ110" s="2"/>
       <c r="CA110" s="2"/>
       <c r="CB110" s="2"/>
+      <c r="CC110" s="2"/>
     </row>
-    <row r="111" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F111" s="2"/>
+    <row r="111" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -22902,9 +24570,9 @@
       <c r="BZ111" s="2"/>
       <c r="CA111" s="2"/>
       <c r="CB111" s="2"/>
+      <c r="CC111" s="2"/>
     </row>
-    <row r="112" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F112" s="2"/>
+    <row r="112" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -22979,9 +24647,9 @@
       <c r="BZ112" s="2"/>
       <c r="CA112" s="2"/>
       <c r="CB112" s="2"/>
+      <c r="CC112" s="2"/>
     </row>
-    <row r="113" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F113" s="2"/>
+    <row r="113" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -23056,9 +24724,9 @@
       <c r="BZ113" s="2"/>
       <c r="CA113" s="2"/>
       <c r="CB113" s="2"/>
+      <c r="CC113" s="2"/>
     </row>
-    <row r="114" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F114" s="2"/>
+    <row r="114" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -23133,9 +24801,9 @@
       <c r="BZ114" s="2"/>
       <c r="CA114" s="2"/>
       <c r="CB114" s="2"/>
+      <c r="CC114" s="2"/>
     </row>
-    <row r="115" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F115" s="2"/>
+    <row r="115" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -23210,9 +24878,9 @@
       <c r="BZ115" s="2"/>
       <c r="CA115" s="2"/>
       <c r="CB115" s="2"/>
+      <c r="CC115" s="2"/>
     </row>
-    <row r="116" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F116" s="2"/>
+    <row r="116" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -23287,9 +24955,9 @@
       <c r="BZ116" s="2"/>
       <c r="CA116" s="2"/>
       <c r="CB116" s="2"/>
+      <c r="CC116" s="2"/>
     </row>
-    <row r="117" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F117" s="2"/>
+    <row r="117" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -23364,9 +25032,9 @@
       <c r="BZ117" s="2"/>
       <c r="CA117" s="2"/>
       <c r="CB117" s="2"/>
+      <c r="CC117" s="2"/>
     </row>
-    <row r="118" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F118" s="2"/>
+    <row r="118" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -23441,9 +25109,9 @@
       <c r="BZ118" s="2"/>
       <c r="CA118" s="2"/>
       <c r="CB118" s="2"/>
+      <c r="CC118" s="2"/>
     </row>
-    <row r="119" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F119" s="2"/>
+    <row r="119" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -23518,9 +25186,9 @@
       <c r="BZ119" s="2"/>
       <c r="CA119" s="2"/>
       <c r="CB119" s="2"/>
+      <c r="CC119" s="2"/>
     </row>
-    <row r="120" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F120" s="2"/>
+    <row r="120" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -23595,9 +25263,9 @@
       <c r="BZ120" s="2"/>
       <c r="CA120" s="2"/>
       <c r="CB120" s="2"/>
+      <c r="CC120" s="2"/>
     </row>
-    <row r="121" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F121" s="2"/>
+    <row r="121" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -23672,9 +25340,9 @@
       <c r="BZ121" s="2"/>
       <c r="CA121" s="2"/>
       <c r="CB121" s="2"/>
+      <c r="CC121" s="2"/>
     </row>
-    <row r="122" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F122" s="2"/>
+    <row r="122" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -23749,9 +25417,9 @@
       <c r="BZ122" s="2"/>
       <c r="CA122" s="2"/>
       <c r="CB122" s="2"/>
+      <c r="CC122" s="2"/>
     </row>
-    <row r="123" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F123" s="2"/>
+    <row r="123" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -23826,9 +25494,9 @@
       <c r="BZ123" s="2"/>
       <c r="CA123" s="2"/>
       <c r="CB123" s="2"/>
+      <c r="CC123" s="2"/>
     </row>
-    <row r="124" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F124" s="2"/>
+    <row r="124" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -23903,9 +25571,9 @@
       <c r="BZ124" s="2"/>
       <c r="CA124" s="2"/>
       <c r="CB124" s="2"/>
+      <c r="CC124" s="2"/>
     </row>
-    <row r="125" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F125" s="2"/>
+    <row r="125" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -23980,9 +25648,9 @@
       <c r="BZ125" s="2"/>
       <c r="CA125" s="2"/>
       <c r="CB125" s="2"/>
+      <c r="CC125" s="2"/>
     </row>
-    <row r="126" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F126" s="2"/>
+    <row r="126" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -24057,9 +25725,9 @@
       <c r="BZ126" s="2"/>
       <c r="CA126" s="2"/>
       <c r="CB126" s="2"/>
+      <c r="CC126" s="2"/>
     </row>
-    <row r="127" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F127" s="2"/>
+    <row r="127" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -24134,9 +25802,9 @@
       <c r="BZ127" s="2"/>
       <c r="CA127" s="2"/>
       <c r="CB127" s="2"/>
+      <c r="CC127" s="2"/>
     </row>
-    <row r="128" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F128" s="2"/>
+    <row r="128" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -24211,9 +25879,9 @@
       <c r="BZ128" s="2"/>
       <c r="CA128" s="2"/>
       <c r="CB128" s="2"/>
+      <c r="CC128" s="2"/>
     </row>
-    <row r="129" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F129" s="2"/>
+    <row r="129" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -24288,9 +25956,9 @@
       <c r="BZ129" s="2"/>
       <c r="CA129" s="2"/>
       <c r="CB129" s="2"/>
+      <c r="CC129" s="2"/>
     </row>
-    <row r="130" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F130" s="2"/>
+    <row r="130" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -24365,9 +26033,9 @@
       <c r="BZ130" s="2"/>
       <c r="CA130" s="2"/>
       <c r="CB130" s="2"/>
+      <c r="CC130" s="2"/>
     </row>
-    <row r="131" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F131" s="2"/>
+    <row r="131" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -24442,9 +26110,9 @@
       <c r="BZ131" s="2"/>
       <c r="CA131" s="2"/>
       <c r="CB131" s="2"/>
+      <c r="CC131" s="2"/>
     </row>
-    <row r="132" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F132" s="2"/>
+    <row r="132" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -24519,9 +26187,9 @@
       <c r="BZ132" s="2"/>
       <c r="CA132" s="2"/>
       <c r="CB132" s="2"/>
+      <c r="CC132" s="2"/>
     </row>
-    <row r="133" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F133" s="2"/>
+    <row r="133" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -24596,9 +26264,9 @@
       <c r="BZ133" s="2"/>
       <c r="CA133" s="2"/>
       <c r="CB133" s="2"/>
+      <c r="CC133" s="2"/>
     </row>
-    <row r="134" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F134" s="2"/>
+    <row r="134" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -24673,9 +26341,9 @@
       <c r="BZ134" s="2"/>
       <c r="CA134" s="2"/>
       <c r="CB134" s="2"/>
+      <c r="CC134" s="2"/>
     </row>
-    <row r="135" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F135" s="2"/>
+    <row r="135" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -24750,9 +26418,9 @@
       <c r="BZ135" s="2"/>
       <c r="CA135" s="2"/>
       <c r="CB135" s="2"/>
+      <c r="CC135" s="2"/>
     </row>
-    <row r="136" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F136" s="2"/>
+    <row r="136" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -24827,9 +26495,9 @@
       <c r="BZ136" s="2"/>
       <c r="CA136" s="2"/>
       <c r="CB136" s="2"/>
+      <c r="CC136" s="2"/>
     </row>
-    <row r="137" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F137" s="2"/>
+    <row r="137" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -24904,9 +26572,9 @@
       <c r="BZ137" s="2"/>
       <c r="CA137" s="2"/>
       <c r="CB137" s="2"/>
+      <c r="CC137" s="2"/>
     </row>
-    <row r="138" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F138" s="2"/>
+    <row r="138" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -24981,9 +26649,9 @@
       <c r="BZ138" s="2"/>
       <c r="CA138" s="2"/>
       <c r="CB138" s="2"/>
+      <c r="CC138" s="2"/>
     </row>
-    <row r="139" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F139" s="2"/>
+    <row r="139" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -25058,9 +26726,9 @@
       <c r="BZ139" s="2"/>
       <c r="CA139" s="2"/>
       <c r="CB139" s="2"/>
+      <c r="CC139" s="2"/>
     </row>
-    <row r="140" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F140" s="2"/>
+    <row r="140" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -25135,9 +26803,9 @@
       <c r="BZ140" s="2"/>
       <c r="CA140" s="2"/>
       <c r="CB140" s="2"/>
+      <c r="CC140" s="2"/>
     </row>
-    <row r="141" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F141" s="2"/>
+    <row r="141" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -25212,9 +26880,9 @@
       <c r="BZ141" s="2"/>
       <c r="CA141" s="2"/>
       <c r="CB141" s="2"/>
+      <c r="CC141" s="2"/>
     </row>
-    <row r="142" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F142" s="2"/>
+    <row r="142" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -25289,9 +26957,9 @@
       <c r="BZ142" s="2"/>
       <c r="CA142" s="2"/>
       <c r="CB142" s="2"/>
+      <c r="CC142" s="2"/>
     </row>
-    <row r="143" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F143" s="2"/>
+    <row r="143" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -25366,9 +27034,9 @@
       <c r="BZ143" s="2"/>
       <c r="CA143" s="2"/>
       <c r="CB143" s="2"/>
+      <c r="CC143" s="2"/>
     </row>
-    <row r="144" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F144" s="2"/>
+    <row r="144" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -25443,9 +27111,9 @@
       <c r="BZ144" s="2"/>
       <c r="CA144" s="2"/>
       <c r="CB144" s="2"/>
+      <c r="CC144" s="2"/>
     </row>
-    <row r="145" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F145" s="2"/>
+    <row r="145" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -25520,9 +27188,9 @@
       <c r="BZ145" s="2"/>
       <c r="CA145" s="2"/>
       <c r="CB145" s="2"/>
+      <c r="CC145" s="2"/>
     </row>
-    <row r="146" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F146" s="2"/>
+    <row r="146" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -25597,9 +27265,9 @@
       <c r="BZ146" s="2"/>
       <c r="CA146" s="2"/>
       <c r="CB146" s="2"/>
+      <c r="CC146" s="2"/>
     </row>
-    <row r="147" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F147" s="2"/>
+    <row r="147" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -25674,9 +27342,9 @@
       <c r="BZ147" s="2"/>
       <c r="CA147" s="2"/>
       <c r="CB147" s="2"/>
+      <c r="CC147" s="2"/>
     </row>
-    <row r="148" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F148" s="2"/>
+    <row r="148" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -25751,9 +27419,9 @@
       <c r="BZ148" s="2"/>
       <c r="CA148" s="2"/>
       <c r="CB148" s="2"/>
+      <c r="CC148" s="2"/>
     </row>
-    <row r="149" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F149" s="2"/>
+    <row r="149" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -25828,9 +27496,9 @@
       <c r="BZ149" s="2"/>
       <c r="CA149" s="2"/>
       <c r="CB149" s="2"/>
+      <c r="CC149" s="2"/>
     </row>
-    <row r="150" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F150" s="2"/>
+    <row r="150" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -25905,9 +27573,9 @@
       <c r="BZ150" s="2"/>
       <c r="CA150" s="2"/>
       <c r="CB150" s="2"/>
+      <c r="CC150" s="2"/>
     </row>
-    <row r="151" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F151" s="2"/>
+    <row r="151" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -25982,9 +27650,9 @@
       <c r="BZ151" s="2"/>
       <c r="CA151" s="2"/>
       <c r="CB151" s="2"/>
+      <c r="CC151" s="2"/>
     </row>
-    <row r="152" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F152" s="2"/>
+    <row r="152" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -26059,9 +27727,9 @@
       <c r="BZ152" s="2"/>
       <c r="CA152" s="2"/>
       <c r="CB152" s="2"/>
+      <c r="CC152" s="2"/>
     </row>
-    <row r="153" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F153" s="2"/>
+    <row r="153" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -26136,9 +27804,9 @@
       <c r="BZ153" s="2"/>
       <c r="CA153" s="2"/>
       <c r="CB153" s="2"/>
+      <c r="CC153" s="2"/>
     </row>
-    <row r="154" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F154" s="2"/>
+    <row r="154" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -26213,9 +27881,9 @@
       <c r="BZ154" s="2"/>
       <c r="CA154" s="2"/>
       <c r="CB154" s="2"/>
+      <c r="CC154" s="2"/>
     </row>
-    <row r="155" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F155" s="2"/>
+    <row r="155" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -26290,9 +27958,9 @@
       <c r="BZ155" s="2"/>
       <c r="CA155" s="2"/>
       <c r="CB155" s="2"/>
+      <c r="CC155" s="2"/>
     </row>
-    <row r="156" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F156" s="2"/>
+    <row r="156" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -26367,9 +28035,9 @@
       <c r="BZ156" s="2"/>
       <c r="CA156" s="2"/>
       <c r="CB156" s="2"/>
+      <c r="CC156" s="2"/>
     </row>
-    <row r="157" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F157" s="2"/>
+    <row r="157" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -26444,9 +28112,9 @@
       <c r="BZ157" s="2"/>
       <c r="CA157" s="2"/>
       <c r="CB157" s="2"/>
+      <c r="CC157" s="2"/>
     </row>
-    <row r="158" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F158" s="2"/>
+    <row r="158" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -26521,9 +28189,9 @@
       <c r="BZ158" s="2"/>
       <c r="CA158" s="2"/>
       <c r="CB158" s="2"/>
+      <c r="CC158" s="2"/>
     </row>
-    <row r="159" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F159" s="2"/>
+    <row r="159" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -26598,9 +28266,9 @@
       <c r="BZ159" s="2"/>
       <c r="CA159" s="2"/>
       <c r="CB159" s="2"/>
+      <c r="CC159" s="2"/>
     </row>
-    <row r="160" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F160" s="2"/>
+    <row r="160" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -26675,9 +28343,9 @@
       <c r="BZ160" s="2"/>
       <c r="CA160" s="2"/>
       <c r="CB160" s="2"/>
+      <c r="CC160" s="2"/>
     </row>
-    <row r="161" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F161" s="2"/>
+    <row r="161" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -26752,9 +28420,9 @@
       <c r="BZ161" s="2"/>
       <c r="CA161" s="2"/>
       <c r="CB161" s="2"/>
+      <c r="CC161" s="2"/>
     </row>
-    <row r="162" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F162" s="2"/>
+    <row r="162" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -26829,9 +28497,9 @@
       <c r="BZ162" s="2"/>
       <c r="CA162" s="2"/>
       <c r="CB162" s="2"/>
+      <c r="CC162" s="2"/>
     </row>
-    <row r="163" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F163" s="2"/>
+    <row r="163" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -26906,9 +28574,9 @@
       <c r="BZ163" s="2"/>
       <c r="CA163" s="2"/>
       <c r="CB163" s="2"/>
+      <c r="CC163" s="2"/>
     </row>
-    <row r="164" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F164" s="2"/>
+    <row r="164" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -26983,9 +28651,9 @@
       <c r="BZ164" s="2"/>
       <c r="CA164" s="2"/>
       <c r="CB164" s="2"/>
+      <c r="CC164" s="2"/>
     </row>
-    <row r="165" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F165" s="2"/>
+    <row r="165" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -27060,9 +28728,9 @@
       <c r="BZ165" s="2"/>
       <c r="CA165" s="2"/>
       <c r="CB165" s="2"/>
+      <c r="CC165" s="2"/>
     </row>
-    <row r="166" spans="6:80" x14ac:dyDescent="0.25">
-      <c r="F166" s="2"/>
+    <row r="166" spans="7:81" x14ac:dyDescent="0.25">
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -27137,6 +28805,7 @@
       <c r="BZ166" s="2"/>
       <c r="CA166" s="2"/>
       <c r="CB166" s="2"/>
+      <c r="CC166" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27148,8 +28817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2291C2-86B7-487F-A46C-D30030B9B66C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M88" sqref="M88"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
